--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
         <v>6107</v>
       </c>
       <c r="D3">
-        <v>14388</v>
+        <v>14384</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>6721</v>
       </c>
       <c r="D4">
-        <v>16322</v>
+        <v>18194</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>20514</v>
       </c>
       <c r="D8">
-        <v>6331</v>
+        <v>15156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -507,6 +507,9 @@
       </c>
       <c r="C9">
         <v>15186</v>
+      </c>
+      <c r="D9">
+        <v>9143</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,9 @@
       <c r="C10">
         <v>15027</v>
       </c>
+      <c r="D10">
+        <v>13485</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -532,6 +535,9 @@
       </c>
       <c r="C11">
         <v>13756</v>
+      </c>
+      <c r="D11">
+        <v>11342</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>15186</v>
       </c>
       <c r="D9">
-        <v>9143</v>
+        <v>9944</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,6 +550,9 @@
       <c r="C12">
         <v>16863</v>
       </c>
+      <c r="D12">
+        <v>9050</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -560,6 +563,9 @@
       </c>
       <c r="C13">
         <v>9893</v>
+      </c>
+      <c r="D13">
+        <v>10464</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -378,7 +378,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>9893</v>
       </c>
       <c r="D13">
-        <v>10464</v>
+        <v>10997</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -399,8 +399,11 @@
       <c r="D1">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -413,8 +416,11 @@
       <c r="D2">
         <v>5200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>15098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -427,8 +433,11 @@
       <c r="D3">
         <v>14384</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>10949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -441,8 +450,11 @@
       <c r="D4">
         <v>18194</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>9888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -455,8 +467,11 @@
       <c r="D5">
         <v>18783</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>11459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="D6">
         <v>18825</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -483,8 +501,11 @@
       <c r="D7">
         <v>18740</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="D8">
         <v>15156</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -511,8 +535,11 @@
       <c r="D9">
         <v>9944</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -525,8 +552,11 @@
       <c r="D10">
         <v>13485</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -539,8 +569,11 @@
       <c r="D11">
         <v>11342</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -553,8 +586,11 @@
       <c r="D12">
         <v>9050</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -566,6 +602,9 @@
       </c>
       <c r="D13">
         <v>10997</v>
+      </c>
+      <c r="E13">
+        <v>6752</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data/ascentmonthly.xlsx
+++ b/docs/data/ascentmonthly.xlsx
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -402,8 +402,11 @@
       <c r="E1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -419,8 +422,11 @@
       <c r="E2">
         <v>15098</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -436,8 +442,11 @@
       <c r="E3">
         <v>10949</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,8 +462,11 @@
       <c r="E4">
         <v>9888</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -470,8 +482,11 @@
       <c r="E5">
         <v>11459</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -487,8 +502,11 @@
       <c r="E6">
         <v>1232</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -505,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -522,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -539,7 +557,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -556,7 +574,7 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -573,7 +591,7 @@
         <v>9633</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -590,7 +608,7 @@
         <v>4388</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
